--- a/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H2">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.384750781850083</v>
+        <v>0.04178033333333334</v>
       </c>
       <c r="N2">
-        <v>0.384750781850083</v>
+        <v>0.125341</v>
       </c>
       <c r="O2">
-        <v>0.09436467339197868</v>
+        <v>0.009630623139527362</v>
       </c>
       <c r="P2">
-        <v>0.09436467339197868</v>
+        <v>0.009630623139527362</v>
       </c>
       <c r="Q2">
-        <v>4.065688679377529</v>
+        <v>0.753941977599889</v>
       </c>
       <c r="R2">
-        <v>4.065688679377529</v>
+        <v>6.785477798399001</v>
       </c>
       <c r="S2">
-        <v>0.05655080299113274</v>
+        <v>0.006546858830902224</v>
       </c>
       <c r="T2">
-        <v>0.05655080299113274</v>
+        <v>0.006546858830902224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H3">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.69252483433181</v>
+        <v>0.181585</v>
       </c>
       <c r="N3">
-        <v>3.69252483433181</v>
+        <v>0.544755</v>
       </c>
       <c r="O3">
-        <v>0.9056353266080213</v>
+        <v>0.04185645645377991</v>
       </c>
       <c r="P3">
-        <v>0.9056353266080213</v>
+        <v>0.04185645645377991</v>
       </c>
       <c r="Q3">
-        <v>39.01917065658586</v>
+        <v>3.276770266771667</v>
       </c>
       <c r="R3">
-        <v>39.01917065658586</v>
+        <v>29.490932400945</v>
       </c>
       <c r="S3">
-        <v>0.5427285772937753</v>
+        <v>0.02845385055511078</v>
       </c>
       <c r="T3">
-        <v>0.5427285772937753</v>
+        <v>0.02845385055511078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.418824971792328</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H4">
-        <v>0.418824971792328</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I4">
-        <v>0.02375238879227139</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J4">
-        <v>0.02375238879227139</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.384750781850083</v>
+        <v>0.4121513333333333</v>
       </c>
       <c r="N4">
-        <v>0.384750781850083</v>
+        <v>1.236454</v>
       </c>
       <c r="O4">
-        <v>0.09436467339197868</v>
+        <v>0.09500341072243849</v>
       </c>
       <c r="P4">
-        <v>0.09436467339197868</v>
+        <v>0.09500341072243849</v>
       </c>
       <c r="Q4">
-        <v>0.1611432353554372</v>
+        <v>7.43742729012289</v>
       </c>
       <c r="R4">
-        <v>0.1611432353554372</v>
+        <v>66.93684561110601</v>
       </c>
       <c r="S4">
-        <v>0.002241386410661985</v>
+        <v>0.06458293606165881</v>
       </c>
       <c r="T4">
-        <v>0.002241386410661985</v>
+        <v>0.06458293606165881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.418824971792328</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H5">
-        <v>0.418824971792328</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I5">
-        <v>0.02375238879227139</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J5">
-        <v>0.02375238879227139</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.69252483433181</v>
+        <v>3.702762666666667</v>
       </c>
       <c r="N5">
-        <v>3.69252483433181</v>
+        <v>11.108288</v>
       </c>
       <c r="O5">
-        <v>0.9056353266080213</v>
+        <v>0.8535095096842542</v>
       </c>
       <c r="P5">
-        <v>0.9056353266080213</v>
+        <v>0.8535095096842543</v>
       </c>
       <c r="Q5">
-        <v>1.546521609581491</v>
+        <v>66.81775813555912</v>
       </c>
       <c r="R5">
-        <v>1.546521609581491</v>
+        <v>601.3598232200321</v>
       </c>
       <c r="S5">
-        <v>0.02151100238160941</v>
+        <v>0.5802123278815806</v>
       </c>
       <c r="T5">
-        <v>0.02151100238160941</v>
+        <v>0.5802123278815807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.76155604690593</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H6">
-        <v>3.76155604690593</v>
+        <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.2133252497043819</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J6">
-        <v>0.2133252497043819</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.384750781850083</v>
+        <v>0.04178033333333334</v>
       </c>
       <c r="N6">
-        <v>0.384750781850083</v>
+        <v>0.125341</v>
       </c>
       <c r="O6">
-        <v>0.09436467339197868</v>
+        <v>0.009630623139527362</v>
       </c>
       <c r="P6">
-        <v>0.09436467339197868</v>
+        <v>0.009630623139527362</v>
       </c>
       <c r="Q6">
-        <v>1.447261630019964</v>
+        <v>0.02507652821311112</v>
       </c>
       <c r="R6">
-        <v>1.447261630019964</v>
+        <v>0.225688753918</v>
       </c>
       <c r="S6">
-        <v>0.0201303675146163</v>
+        <v>0.0002177521547520203</v>
       </c>
       <c r="T6">
-        <v>0.0201303675146163</v>
+        <v>0.0002177521547520203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.76155604690593</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H7">
-        <v>3.76155604690593</v>
+        <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.2133252497043819</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J7">
-        <v>0.2133252497043819</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.69252483433181</v>
+        <v>0.181585</v>
       </c>
       <c r="N7">
-        <v>3.69252483433181</v>
+        <v>0.544755</v>
       </c>
       <c r="O7">
-        <v>0.9056353266080213</v>
+        <v>0.04185645645377991</v>
       </c>
       <c r="P7">
-        <v>0.9056353266080213</v>
+        <v>0.04185645645377991</v>
       </c>
       <c r="Q7">
-        <v>13.88963911893114</v>
+        <v>0.1089871959433334</v>
       </c>
       <c r="R7">
-        <v>13.88963911893114</v>
+        <v>0.9808847634900001</v>
       </c>
       <c r="S7">
-        <v>0.1931948821897656</v>
+        <v>0.0009463908462668786</v>
       </c>
       <c r="T7">
-        <v>0.1931948821897656</v>
+        <v>0.0009463908462668786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.88551048874402</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H8">
-        <v>2.88551048874402</v>
+        <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.1636429812184386</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J8">
-        <v>0.1636429812184386</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.384750781850083</v>
+        <v>0.4121513333333333</v>
       </c>
       <c r="N8">
-        <v>0.384750781850083</v>
+        <v>1.236454</v>
       </c>
       <c r="O8">
-        <v>0.09436467339197868</v>
+        <v>0.09500341072243849</v>
       </c>
       <c r="P8">
-        <v>0.09436467339197868</v>
+        <v>0.09500341072243849</v>
       </c>
       <c r="Q8">
-        <v>1.110202416580877</v>
+        <v>0.2473729554991111</v>
       </c>
       <c r="R8">
-        <v>1.110202416580877</v>
+        <v>2.226356599492</v>
       </c>
       <c r="S8">
-        <v>0.01544211647556766</v>
+        <v>0.002148064262705376</v>
       </c>
       <c r="T8">
-        <v>0.01544211647556766</v>
+        <v>0.002148064262705376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.88551048874402</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H9">
-        <v>2.88551048874402</v>
+        <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.1636429812184386</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J9">
-        <v>0.1636429812184386</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.69252483433181</v>
+        <v>3.702762666666667</v>
       </c>
       <c r="N9">
-        <v>3.69252483433181</v>
+        <v>11.108288</v>
       </c>
       <c r="O9">
-        <v>0.9056353266080213</v>
+        <v>0.8535095096842542</v>
       </c>
       <c r="P9">
-        <v>0.9056353266080213</v>
+        <v>0.8535095096842543</v>
       </c>
       <c r="Q9">
-        <v>10.65481913941221</v>
+        <v>2.222395684024889</v>
       </c>
       <c r="R9">
-        <v>10.65481913941221</v>
+        <v>20.001561156224</v>
       </c>
       <c r="S9">
-        <v>0.1482008647428709</v>
+        <v>0.01929818373561732</v>
       </c>
       <c r="T9">
-        <v>0.1482008647428709</v>
+        <v>0.01929818373561732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.690054333333333</v>
+      </c>
+      <c r="H10">
+        <v>14.070163</v>
+      </c>
+      <c r="I10">
+        <v>0.1766812397072912</v>
+      </c>
+      <c r="J10">
+        <v>0.1766812397072912</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04178033333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.125341</v>
+      </c>
+      <c r="O10">
+        <v>0.009630623139527362</v>
+      </c>
+      <c r="P10">
+        <v>0.009630623139527362</v>
+      </c>
+      <c r="Q10">
+        <v>0.1959520333981111</v>
+      </c>
+      <c r="R10">
+        <v>1.763568300583</v>
+      </c>
+      <c r="S10">
+        <v>0.001701550435445419</v>
+      </c>
+      <c r="T10">
+        <v>0.001701550435445419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.690054333333333</v>
+      </c>
+      <c r="H11">
+        <v>14.070163</v>
+      </c>
+      <c r="I11">
+        <v>0.1766812397072912</v>
+      </c>
+      <c r="J11">
+        <v>0.1766812397072912</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.181585</v>
+      </c>
+      <c r="N11">
+        <v>0.544755</v>
+      </c>
+      <c r="O11">
+        <v>0.04185645645377991</v>
+      </c>
+      <c r="P11">
+        <v>0.04185645645377991</v>
+      </c>
+      <c r="Q11">
+        <v>0.8516435161183333</v>
+      </c>
+      <c r="R11">
+        <v>7.664791645065001</v>
+      </c>
+      <c r="S11">
+        <v>0.007395250616008082</v>
+      </c>
+      <c r="T11">
+        <v>0.007395250616008084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.690054333333333</v>
+      </c>
+      <c r="H12">
+        <v>14.070163</v>
+      </c>
+      <c r="I12">
+        <v>0.1766812397072912</v>
+      </c>
+      <c r="J12">
+        <v>0.1766812397072912</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4121513333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.236454</v>
+      </c>
+      <c r="O12">
+        <v>0.09500341072243849</v>
+      </c>
+      <c r="P12">
+        <v>0.09500341072243849</v>
+      </c>
+      <c r="Q12">
+        <v>1.933012146889111</v>
+      </c>
+      <c r="R12">
+        <v>17.397109322002</v>
+      </c>
+      <c r="S12">
+        <v>0.01678532038286139</v>
+      </c>
+      <c r="T12">
+        <v>0.01678532038286139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.690054333333333</v>
+      </c>
+      <c r="H13">
+        <v>14.070163</v>
+      </c>
+      <c r="I13">
+        <v>0.1766812397072912</v>
+      </c>
+      <c r="J13">
+        <v>0.1766812397072912</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.702762666666667</v>
+      </c>
+      <c r="N13">
+        <v>11.108288</v>
+      </c>
+      <c r="O13">
+        <v>0.8535095096842542</v>
+      </c>
+      <c r="P13">
+        <v>0.8535095096842543</v>
+      </c>
+      <c r="Q13">
+        <v>17.36615809010489</v>
+      </c>
+      <c r="R13">
+        <v>156.295422810944</v>
+      </c>
+      <c r="S13">
+        <v>0.1507991182729763</v>
+      </c>
+      <c r="T13">
+        <v>0.1507991182729763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.209654333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.628962999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="J14">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04178033333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.125341</v>
+      </c>
+      <c r="O14">
+        <v>0.009630623139527362</v>
+      </c>
+      <c r="P14">
+        <v>0.009630623139527362</v>
+      </c>
+      <c r="Q14">
+        <v>0.1341004279314444</v>
+      </c>
+      <c r="R14">
+        <v>1.206903851383</v>
+      </c>
+      <c r="S14">
+        <v>0.001164461718427699</v>
+      </c>
+      <c r="T14">
+        <v>0.001164461718427699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.209654333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.628962999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="J15">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.181585</v>
+      </c>
+      <c r="N15">
+        <v>0.544755</v>
+      </c>
+      <c r="O15">
+        <v>0.04185645645377991</v>
+      </c>
+      <c r="P15">
+        <v>0.04185645645377991</v>
+      </c>
+      <c r="Q15">
+        <v>0.5828250821183333</v>
+      </c>
+      <c r="R15">
+        <v>5.245425739064999</v>
+      </c>
+      <c r="S15">
+        <v>0.005060964436394165</v>
+      </c>
+      <c r="T15">
+        <v>0.005060964436394165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.209654333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.628962999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="J16">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4121513333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.236454</v>
+      </c>
+      <c r="O16">
+        <v>0.09500341072243849</v>
+      </c>
+      <c r="P16">
+        <v>0.09500341072243849</v>
+      </c>
+      <c r="Q16">
+        <v>1.322863313022444</v>
+      </c>
+      <c r="R16">
+        <v>11.905769817202</v>
+      </c>
+      <c r="S16">
+        <v>0.01148709001521291</v>
+      </c>
+      <c r="T16">
+        <v>0.01148709001521291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.209654333333333</v>
+      </c>
+      <c r="H17">
+        <v>9.628962999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="J17">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.702762666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.108288</v>
+      </c>
+      <c r="O17">
+        <v>0.8535095096842542</v>
+      </c>
+      <c r="P17">
+        <v>0.8535095096842543</v>
+      </c>
+      <c r="Q17">
+        <v>11.88458823837155</v>
+      </c>
+      <c r="R17">
+        <v>106.961294145344</v>
+      </c>
+      <c r="S17">
+        <v>0.10319987979408</v>
+      </c>
+      <c r="T17">
+        <v>0.10319987979408</v>
       </c>
     </row>
   </sheetData>
